--- a/datastatic/datasets/online/SDG10_Integration of Migrants_MIPEX_2014.xlsx
+++ b/datastatic/datasets/online/SDG10_Integration of Migrants_MIPEX_2014.xlsx
@@ -16,7 +16,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B34">
+    <comment authorId="0" ref="B35">
       <text>
         <t xml:space="preserve">ist das ein problem für uns?
 	-Johanna Renz</t>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+  <si>
+    <t>sponsor</t>
+  </si>
   <si>
     <t>original_title</t>
   </si>
@@ -62,25 +65,25 @@
     <t>long_indicator_description</t>
   </si>
   <si>
-    <t>long_indicator_description$en</t>
+    <t>long_indicator_description$en$text</t>
   </si>
   <si>
     <t xml:space="preserve">MIPEX measures to what extent policies of a country are favourable for the integration of migrants. It is comprised of 167 indicators in 8 policy areas. The policy areas are labour market mobility, education, political participation, permanent residence, family reunion, access to nationality, anti-discrimination and health. For each policy area, the current laws and practices are benchmarked against the highest standard. The focus is on input data (policies and programmes), even though there is also information on output data (such as employment rates) on the MIPEX website. Thus, it clearly shows areas, in which governments need to become more active. Nevertheless, as a result, it disregards instances, in which there is a disconnect between the policies and the reality in a country. For example migrants may have rights to work, but they may not be able to find employment, because of the structure of the labour market. </t>
   </si>
   <si>
-    <t>long_indicator_description$de</t>
+    <t>long_indicator_description$de$text</t>
   </si>
   <si>
     <t xml:space="preserve">Mit dem MIPEX kann gemessen werden, inwiefern die Politik und die Programme eines Landes förderlich für die Integration von Flüchtlingen ist. Der Index besteht aus 167 Indikatoren in acht Bereichen. Diese Bereiche sind Arbeitsmarktmobilität, Bildung, politische Partizipation, dauerhafter Aufenthalt, Familienzusammenführung, Zugang zu Staatsbürgerschaft, Anti-Diskriminierung und Gesundheit. In jedem Bereich wird die bestehende Rechtslage mit einem Idealzustand verglichen, der von Experten ermittelt wurde. Der MIPEX zeigt hauptsächlich Entwicklungen in der Politik auf (input data), aber es gibt auch Informationen zu Ergebnissen (output data), wie beispielsweise Beschäftigungsraten. Es zeigt also Felder auf, in denen die Regierung aktiver werden muss. Es kann aber sein, dass eine Regierung in einem Bereich sehr aktiv ist, aber alle Maßnahmen erfolglos bleiben. In solchen Fällen wäre der MIPEX nicht ausreichen, um die Integrationsmöglichkeiten in einem Land abzubilden. </t>
   </si>
   <si>
-    <t>long_indicator_description$baseunit$de</t>
+    <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
     <t>Bewertung von 0 bis 100</t>
   </si>
   <si>
-    <t>long_indicator_description$baseunit$en</t>
+    <t>long_indicator_description$en$baseunit</t>
   </si>
   <si>
     <t>Score from 0 to 100</t>
@@ -191,7 +194,7 @@
     <t>© 2015 MIPEX. All rights reserved.</t>
   </si>
   <si>
-    <t>INDICATOR</t>
+    <t>countries</t>
   </si>
   <si>
     <t>Australia</t>
@@ -346,7 +349,7 @@
     <numFmt numFmtId="164" formatCode="d.m"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -381,6 +384,9 @@
     <font>
       <b/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
     </font>
     <font>
       <color rgb="FF1F2625"/>
@@ -444,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -455,6 +461,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -488,18 +497,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,725 +537,686 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>10.0</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="B5" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
         <v>80.0</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="11">
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12">
         <v>42561.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="23">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="12">
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="13">
         <v>42614.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="26">
+      <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2">
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
         <v>2014.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="10" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15">
+        <v>2014.0</v>
+      </c>
+      <c r="C37" s="16">
+        <v>2011.0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2012.0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2014.0</v>
+      </c>
+      <c r="F37" s="16">
+        <v>2015.0</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2016.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="14">
-        <v>2011.0</v>
-      </c>
-      <c r="C38" s="15">
-        <v>2012.0</v>
-      </c>
-      <c r="D38" s="15">
-        <v>2013.0</v>
-      </c>
-      <c r="E38" s="16">
-        <v>2014.0</v>
-      </c>
-      <c r="F38" s="15">
-        <v>2015.0</v>
-      </c>
-      <c r="G38" s="15">
-        <v>2016.0</v>
+      <c r="A38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="19">
+        <v>66.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="E39" s="18">
-        <v>66.0</v>
+      <c r="A39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="19">
+        <v>48.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="E40" s="18">
+      <c r="A40" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="19">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="19">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="19">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="19">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="19">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="19">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="19">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="19">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="19">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="19">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="19">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="19">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="19">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="19">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="19">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="19">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="19">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="19">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="19">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="19">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="19">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="19">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="19">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="19">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="19">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="19">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="19">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="19">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="19">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="19">
         <v>48.0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="E41" s="18">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="E42" s="18">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="E43" s="18">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="E44" s="18">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="E45" s="18">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="E46" s="18">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="E47" s="18">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="E48" s="18">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="E49" s="18">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="E50" s="18">
+    <row r="70">
+      <c r="A70" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="19">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="19">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="19">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="19">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="19">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="19">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="19">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="19">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="19">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="19">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="19">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="19">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="19">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="19">
         <v>54.0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="E51" s="18">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="E52" s="18">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="E53" s="18">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="E54" s="18">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="E55" s="18">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="E56" s="18">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="E57" s="18">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="E58" s="18">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="E59" s="18">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="E60" s="18">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="E61" s="18">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="E62" s="18">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="E63" s="18">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="E64" s="18">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="E65" s="18">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="E66" s="18">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="E67" s="18">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="E68" s="18">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="E69" s="18">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="E70" s="18">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="E71" s="18">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="E72" s="18">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="E73" s="18">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="E74" s="18">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="E75" s="18">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="E76" s="18">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="E77" s="18">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="E78" s="18">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="E79" s="18">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="E80" s="18">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="E81" s="18">
+    <row r="84">
+      <c r="A84" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="19">
         <v>53.0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="E82" s="18">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="E83" s="18">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="E84" s="18">
-        <v>54.0</v>
-      </c>
-    </row>
     <row r="85">
-      <c r="A85" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="E85" s="18">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="E86" s="18">
+      <c r="A85" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="19">
         <v>67.0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="B19"/>
-    <hyperlink r:id="rId3" ref="B31"/>
+    <hyperlink r:id="rId2" ref="B20"/>
+    <hyperlink r:id="rId3" ref="B32"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
